--- a/xlsx/快餐_intext.xlsx
+++ b/xlsx/快餐_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="116">
   <si>
     <t>快餐</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A4%90%E5%BB%B3</t>
   </si>
   <si>
-    <t>餐廳</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_快餐</t>
+    <t>餐厅</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_快餐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E9%A4%90%E5%BA%97</t>
@@ -59,31 +59,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E8%B3%A3</t>
   </si>
   <si>
-    <t>外賣</t>
+    <t>外卖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2%E7%88%90</t>
   </si>
   <si>
-    <t>微波爐</t>
+    <t>微波炉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC</t>
   </si>
   <si>
-    <t>古羅馬</t>
+    <t>古罗马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%9D%B1</t>
   </si>
   <si>
-    <t>中東</t>
+    <t>中东</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%8B%89</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F</t>
   </si>
   <si>
-    <t>美國飲食</t>
+    <t>美国饮食</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%8F%9C</t>
@@ -131,15 +131,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>東方世界</t>
+    <t>东方世界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%B3%A2%E7%82%89</t>
   </si>
   <si>
-    <t>微波炉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%B7%E5%AD%90</t>
   </si>
   <si>
@@ -155,13 +152,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BB%B7%E8%82%89%E9%A3%AF</t>
   </si>
   <si>
-    <t>滷肉飯</t>
+    <t>卤肉饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AF%E5%BC%8F%E5%BF%AB%E9%A4%90</t>
@@ -185,7 +182,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%C2%B7%E5%85%8B%E7%BD%97%E5%85%8B</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E9%9B%9E</t>
   </si>
   <si>
-    <t>炸雞</t>
+    <t>炸鸡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E8%83%9C</t>
@@ -221,31 +218,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1%E7%8E%8B</t>
   </si>
   <si>
-    <t>漢堡王</t>
+    <t>汉堡王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E7%83%A4</t>
   </si>
   <si>
-    <t>燒烤</t>
+    <t>烧烤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%A0%A1%E6%8E%92</t>
   </si>
   <si>
-    <t>漢堡排</t>
+    <t>汉堡排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E8%92%82%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>溫蒂漢堡</t>
+    <t>温蒂汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E4%BE%86%E9%80%9F</t>
   </si>
   <si>
-    <t>得來速</t>
+    <t>得来速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%B7%AF%E9%87%8C</t>
@@ -257,7 +254,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E8%89%87%E4%B8%89%E6%98%8E%E6%B2%BB</t>
   </si>
   <si>
-    <t>潛艇三明治</t>
+    <t>潜艇三明治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%A3%9F%E8%A1%97</t>
@@ -275,37 +272,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AC%8D%E9%AC%9A%E5%BC%B5%E9%AD%AF%E8%82%89%E9%A3%AF</t>
   </si>
   <si>
-    <t>鬍鬚張魯肉飯</t>
+    <t>胡须张鲁肉饭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%82%E5%91%B1%E5%91%B1</t>
   </si>
   <si>
-    <t>頂呱呱</t>
+    <t>顶呱呱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%B8%B9%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>丹丹漢堡</t>
+    <t>丹丹汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%96%AF%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>摩斯漢堡</t>
+    <t>摩斯汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>米漢堡</t>
+    <t>米汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E9%A2%A8</t>
   </si>
   <si>
-    <t>和風</t>
+    <t>和风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E7%94%A8%E6%B2%B9</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%BF%E5%91%B3%E6%96%99</t>
   </si>
   <si>
-    <t>調味料</t>
+    <t>调味料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E6%B7%BB%E5%8A%A0%E7%89%A9</t>
@@ -335,13 +332,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E8%87%9F</t>
   </si>
   <si>
-    <t>內臟</t>
+    <t>内脏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A2%E9%A3%9F%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>慢食運動</t>
+    <t>慢食运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%B9%E9%A5%AA</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -365,7 +362,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1284,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1313,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1342,10 +1339,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1371,10 +1368,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1400,10 +1397,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1426,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1458,10 +1455,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1487,10 +1484,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1516,10 +1513,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -1545,10 +1542,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1574,10 +1571,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1603,10 +1600,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1632,10 +1629,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1661,10 +1658,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1690,10 +1687,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1719,10 +1716,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1748,10 +1745,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1777,10 +1774,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1806,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1835,10 +1832,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1864,10 +1861,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1893,10 +1890,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1922,10 +1919,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1951,10 +1948,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1980,10 +1977,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2009,10 +2006,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2038,10 +2035,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2067,10 +2064,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2096,10 +2093,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2125,10 +2122,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2154,10 +2151,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2183,10 +2180,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2212,10 +2209,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2241,10 +2238,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2270,10 +2267,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2299,10 +2296,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2328,10 +2325,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2357,10 +2354,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2386,10 +2383,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
